--- a/data_month/zb/工业/产品销售率(按现价计算).xlsx
+++ b/data_month/zb/工业/产品销售率(按现价计算).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,415 +454,486 @@
           <t>产品销售率(按现价计算)_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>产品销售率(按现价计算)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>98.40000000000001</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>-4.1</v>
       </c>
       <c r="C3" t="n">
-        <v>98.3</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>97.8</v>
+        <v>96.2</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3</v>
+        <v>-2.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1</v>
+        <v>-1.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>97.8</v>
+      </c>
       <c r="D5" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>-0.7</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.6000000000000085</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>97.8</v>
       </c>
       <c r="D6" t="n">
-        <v>96.2</v>
+        <v>97.2</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.2</v>
+        <v>-0.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>97.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>96.8</v>
+        <v>97.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.3</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2999999999999972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C8" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="D8" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>97.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="C9" t="n">
-        <v>97.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D11" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.09999999999999432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1000000000000085</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>97.3</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1</v>
+        <v>1.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
       <c r="C14" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="D14" t="n">
         <v>97.7</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2</v>
+        <v>1.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="D15" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2</v>
+        <v>0.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>97.40000000000001</v>
+      </c>
       <c r="D16" t="n">
-        <v>98.5</v>
+        <v>97.7</v>
       </c>
       <c r="E16" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="C17" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="C18" t="n">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="D18" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1000000000000085</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>-0.4</v>
       </c>
       <c r="C19" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="D19" t="n">
         <v>97.7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="C20" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D20" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.09999999999999432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="C21" t="n">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="D21" t="n">
         <v>97.7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.4</v>
+        <v>-1.4</v>
       </c>
       <c r="C22" t="n">
-        <v>97.8</v>
+        <v>97</v>
       </c>
       <c r="D22" t="n">
         <v>97.7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>-0.4</v>
       </c>
       <c r="C23" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="D23" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>97.7</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/产品销售率(按现价计算).xlsx
+++ b/data_month/zb/工业/产品销售率(按现价计算).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,486 +454,711 @@
           <t>产品销售率(按现价计算)_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>产品销售率(按现价计算)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>98.40000000000001</v>
+      </c>
       <c r="D2" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97.40000000000001</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.1</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>98.3</v>
       </c>
       <c r="D3" t="n">
-        <v>96.2</v>
+        <v>97.8</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>96.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>96.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5999999999999943</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>97.8</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>-0.7</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.6000000000000085</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>-4.1</v>
       </c>
       <c r="C6" t="n">
-        <v>97.8</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n">
-        <v>97.2</v>
+        <v>96.2</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>97.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="D7" t="n">
-        <v>97.5</v>
+        <v>96.8</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2999999999999972</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="D8" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>97.5</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>98.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="D9" t="n">
-        <v>97.7</v>
+        <v>97.2</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2000000000000028</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>97.7</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C11" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="D11" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.09999999999999432</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C12" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1000000000000085</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>97.3</v>
+      </c>
       <c r="D13" t="n">
-        <v>98.5</v>
+        <v>97.7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5999999999999943</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="C14" t="n">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="D14" t="n">
         <v>97.7</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>97.7</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2000000000000028</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>97.40000000000001</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>97.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.8</v>
+        <v>1.4</v>
       </c>
       <c r="C17" t="n">
-        <v>97.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D17" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>97.59999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C18" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="D18" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1000000000000085</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>-0.4</v>
       </c>
       <c r="C19" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D19" t="n">
         <v>97.7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>97.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="C20" t="n">
-        <v>98.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.1</v>
+        <v>-0.7</v>
       </c>
       <c r="C21" t="n">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="D21" t="n">
         <v>97.7</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>97.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.4</v>
+        <v>-0.4</v>
       </c>
       <c r="C22" t="n">
-        <v>97</v>
+        <v>97.8</v>
       </c>
       <c r="D22" t="n">
         <v>97.7</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>97.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>-0.4</v>
       </c>
       <c r="C23" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="D23" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C26" t="n">
         <v>97.7</v>
       </c>
-      <c r="E23" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>97.7</v>
+      <c r="D26" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>96</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>96</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
